--- a/.commissioning/commissioning_template.xlsx
+++ b/.commissioning/commissioning_template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF505368-C5EB-4193-AB59-0F74EC9DACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA3C13-39B1-4C8A-BB0D-8CB22F06E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36936" yWindow="2520" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="11" r:id="rId1"/>
-    <sheet name="Model Overview" sheetId="9" r:id="rId2"/>
-    <sheet name="Model Map" sheetId="15" r:id="rId3"/>
+    <sheet name="Analysis Overview" sheetId="9" r:id="rId2"/>
+    <sheet name="Analysis Map" sheetId="15" r:id="rId3"/>
     <sheet name="Roles and Responsibilities" sheetId="10" r:id="rId4"/>
     <sheet name="R&amp;R Resources" sheetId="12" r:id="rId5"/>
     <sheet name="Ethics Log" sheetId="13" r:id="rId6"/>
@@ -40,13 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
-  <si>
-    <t>This template aims to aid model production by providing a structured template for documentation</t>
-  </si>
-  <si>
-    <t>While the majoirty of the template should be self explanatory, this introductory slide will assist with any confusion and concerns.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>If there are concerns or ideas that are not addressed, please email the owner at  (EMAIL)</t>
   </si>
@@ -60,54 +54,15 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Particlar Details</t>
-  </si>
-  <si>
-    <t>Model Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A table with a series of boxes to be filled in by the owning team which outlines some of the basic model </t>
-  </si>
-  <si>
-    <t>Model Map</t>
-  </si>
-  <si>
-    <t>A graphical representation of all the inputs into the model, what processes they go through and the outputs created by the model. These outputs should then, ideally, be linked to any planned or ongoing publications.</t>
-  </si>
-  <si>
     <t>Roles &amp; Responsibiltiies</t>
   </si>
   <si>
-    <t>Acts as a record of when somebody took on a governance role and if they reviewed the documentation surrounding the responsibiltiies of said role. Also acts as a record of past governance ownership to ensure that handovers are recorded</t>
-  </si>
-  <si>
-    <t>The guidance for each role to follow and agree to is on the subsequent sheet, labled 'R&amp;R Resources'</t>
-  </si>
-  <si>
     <t>R&amp;R Resources</t>
   </si>
   <si>
-    <t>Stores information regarding the specifics of roles and responsibilties</t>
-  </si>
-  <si>
-    <t>Model basics</t>
-  </si>
-  <si>
     <t>Additional Information</t>
   </si>
   <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>Model purpose</t>
-  </si>
-  <si>
-    <t>Owning Team(s)</t>
-  </si>
-  <si>
-    <t>Code Repo Location</t>
-  </si>
-  <si>
     <t>List of Stakeholders</t>
   </si>
   <si>
@@ -123,20 +78,376 @@
     <t>Current Analytical Assurer</t>
   </si>
   <si>
-    <t>Model details</t>
-  </si>
-  <si>
-    <t>Is the model Business Critical?</t>
-  </si>
-  <si>
+    <t>Level of accuracy required</t>
+  </si>
+  <si>
+    <t>To the nearest 10, 100, 1000, 1%, for example</t>
+  </si>
+  <si>
+    <t>Level of uncertainty expressed in results</t>
+  </si>
+  <si>
+    <t>Coding considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding language </t>
+  </si>
+  <si>
+    <t>Performing RAP</t>
+  </si>
+  <si>
+    <t>Further documentation</t>
+  </si>
+  <si>
+    <t>Methodology document</t>
+  </si>
+  <si>
+    <t>Other relevant research documents</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Started on (date)</t>
+  </si>
+  <si>
+    <t>Ended on (date)</t>
+  </si>
+  <si>
+    <t>Have you reviewed the relevantresponsibilites of your role found in the sheet 'R&amp;R Resources'?</t>
+  </si>
+  <si>
+    <t>Do you agree to uphold the roles and responsibilties outlined in the sheet 'R&amp;R Resources'?</t>
+  </si>
+  <si>
+    <t>Please record here which documents you have created to evidence your work in your role</t>
+  </si>
+  <si>
+    <t>Date of last review/update</t>
+  </si>
+  <si>
+    <t>Signed off</t>
+  </si>
+  <si>
+    <t>Next review/update due on</t>
+  </si>
+  <si>
+    <t>SRO</t>
+  </si>
+  <si>
+    <t>Commissioner</t>
+  </si>
+  <si>
+    <t>Analytical Assurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover Example </t>
+  </si>
+  <si>
+    <t>Do not overwrite the existing name</t>
+  </si>
+  <si>
+    <t>Commissioner Overview</t>
+  </si>
+  <si>
+    <t>Analytical Assurer Overview</t>
+  </si>
+  <si>
+    <t>Commisioner Responsibilites</t>
+  </si>
+  <si>
+    <t>Analytical Assurer Responsibilites</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Signed by</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>I agree to ensure that sufficent resources and time are allocated to reach the desired level of quality.</t>
+  </si>
+  <si>
+    <t>I agree to ensure a high level of understanding of the requirements, scope and context of the analysis, not just for myself, but for the SRO, the Analytical Assurer and the Analyst(s)</t>
+  </si>
+  <si>
+    <t>I agree to quantify input error, major assumptions, limitations and uncertainty mathematically wherever possible.</t>
+  </si>
+  <si>
+    <t>I will ensure that the feedback given by the Quality Assurers is fully documented and reviewed by the modelling team</t>
+  </si>
+  <si>
+    <t>I agree to honestly and openly communicate errors in the model before and after publication to the end users. In particular, if an error is detected post publication, I agree to not withhold information regarding the error from the public and the end users.</t>
+  </si>
+  <si>
+    <t>SRO Documents</t>
+  </si>
+  <si>
+    <t>Commissioner Documents</t>
+  </si>
+  <si>
+    <t>Analytical Assurer Documents</t>
+  </si>
+  <si>
+    <t>Name &amp; Description</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name &amp; Description </t>
+  </si>
+  <si>
+    <t>TODO: Create Word Template</t>
+  </si>
+  <si>
+    <t>https://uksa.statisticsauthority.gov.uk/the-authority-board/committees/national-statisticians-advisory-committees-and-panels/national-statisticians-data-ethics-advisory-committee/ethics-self-assessment-tool/</t>
+  </si>
+  <si>
+    <t>Analysis Overview</t>
+  </si>
+  <si>
+    <t>Analysis Map</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a handover has occured and the owner of a role changes, please </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>your name in the sign off box.</t>
+    </r>
+  </si>
+  <si>
+    <t>Senior Responsible Owner overview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Senior Responsible Owner (SRO) owns the analysis. It is the SRO's responsibility to ensure the documentation here is kept up to date and is signed off </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>by them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. They act as the final decision maker on analysis design choices, liasing with the Commissoner if the decisions are very complex or difficult. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>They should make sure that these decisions are documented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. It is their responsibility to make sure that the limitations, uncertainties and assumptions of the analysis are sufficiently communicated to users of the final product. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The commissioner acts as the liason between the end user and the analytical team. They ensure that the analysis is designed according to the end user need. This means transmitting needs from end users to analysts and concerns and limitations from analysts to end users.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> The flow of information should be two-way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The analytical assurer makes sure that sufficient and appropriate quality assurance</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is planned and occurs during analysis development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Quality assurance </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>should happen throughout, and not just at the end of development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>. Most often this involves setting out a clear quality assurance plan, identifying quality assurers and peer review, scheduling time into the development to allow them to work and ensuring that their feedback is reviewed and implemented into the analysis, where appropriate.</t>
+    </r>
+  </si>
+  <si>
+    <t>I agree to review and sign off all key decisions made about the analysis</t>
+  </si>
+  <si>
+    <t>I agree to ensure that sufficent quality assurance happens throughout analysis development and that the analysis complies with the ONS Quality Standard for Analysis</t>
+  </si>
+  <si>
+    <t>I agree to communicate key risks, limitations, major assumptions of the analysis and uncertainty associated with the outcomes to users</t>
+  </si>
+  <si>
+    <t>I agree to ensure that quality assurance is sufficiently varied, including code review, documentation review, methodological review and discussion with the analysis team to ensure development occurs as planned.</t>
+  </si>
+  <si>
+    <t>I agree to understand and keep up to date with the the strengths, limitations and contexts of the analysis</t>
+  </si>
+  <si>
+    <t>I agree to attempt to mittigate assumptions and limitations by improving analysis design wherever possible.</t>
+  </si>
+  <si>
+    <t>I agree to remain up to date and informed of uncertainties in the analysis and their implications </t>
+  </si>
+  <si>
+    <t>I agree to ensure that relevant limitations, uncertainties and caveats detected by quality assurance are communicated to end users, both before and after publication.</t>
+  </si>
+  <si>
+    <t>I agree to ensure that the quality assurance process is compliant and appropriate, documenting findings and reviewing them to inform future analysis development.</t>
+  </si>
+  <si>
+    <t>I agree to transmit information regarding the strengths, limitations, context and uncertainties from the analytical team to end users to ensure appropriate analysis development.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">I agree to communicate the concerns of my analysis team to the commissioner. These concerns can include quality, timeline and feasability concerns. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>It is not acceptable for me to ignore the concerns of the analysis team.</t>
+    </r>
+  </si>
+  <si>
+    <t>I agree to transmit information regarding user needs from end users to the analysis team, ensuring that the analysis is developed according to user needs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commissioning document: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sets out the question the analysis tries to answer and how this analysis will try to answer it. The commissioning document must be completed before production begins. It should be created in collaboration with end users and the analytical team. The document must set out broad specifications for the analysis including accuracy requirements, delivery timeline and skill gaps that must be addressed before completion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QA Plan &amp; Log:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Sets out the planned quality assurance which should occur before the publication of the analysis. It must include a broad outline of the types of review that will occur (e.g. code review, documentation review, external peer review) as well as indicative dates for when the reviews will occur and who will perform them. Peer reviewers should be contacted well in advance of the start date of the review. The required time, resources and documentation should be discussed with them well in advance of the start date.</t>
+    </r>
+  </si>
+  <si>
+    <t>Senior Responsible Owner</t>
+  </si>
+  <si>
+    <t>Roles and responsibilties for [Insert Analysis Name &amp; Financial Year of Interest]</t>
+  </si>
+  <si>
+    <t>Analysis basics</t>
+  </si>
+  <si>
+    <t>Analysis name</t>
+  </si>
+  <si>
+    <t>Analysis purpose</t>
+  </si>
+  <si>
+    <t>Owning team(s)</t>
+  </si>
+  <si>
+    <t>Code Repository URL</t>
+  </si>
+  <si>
+    <t>URL of the code repository on Gitlab or Github for the workflow. 
+For multiple repositories, include the URLs for all relevant ones. 
+Put each URL on a new line.</t>
+  </si>
+  <si>
+    <t>Analysis details</t>
+  </si>
+  <si>
+    <t>If the analysis uses a model, is the model Business Critical?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Business critical is defined as
+      <t xml:space="preserve">A business critical model meets one or more of these criteria:
 </t>
     </r>
     <r>
@@ -149,15 +460,6 @@
 2) A model which is essential to the achivement of business plans and priorities
 3) A model whose errors could cause serious financial, legal and reputational harm</t>
     </r>
-  </si>
-  <si>
-    <t>Level of accuracy required</t>
-  </si>
-  <si>
-    <t>To the nearest 10, 100, 1000, 1%, for example</t>
-  </si>
-  <si>
-    <t>Level of uncertainty expressed in results</t>
   </si>
   <si>
     <r>
@@ -184,363 +486,138 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>: "None" here is not a valid answer - all models should express uncertainty</t>
+      <t>: "None" here is not an acceptable answer - all analysis should express uncertainty</t>
     </r>
   </si>
   <si>
-    <t>Coding considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding language </t>
-  </si>
-  <si>
-    <t>Past models</t>
-  </si>
-  <si>
-    <t>Performing RAP</t>
-  </si>
-  <si>
-    <t>Link to duck book</t>
-  </si>
-  <si>
-    <t>Further documentation</t>
-  </si>
-  <si>
-    <t>Methodology document</t>
-  </si>
-  <si>
-    <t>Publication / Output</t>
-  </si>
-  <si>
-    <t>Other relevant research documents</t>
-  </si>
-  <si>
-    <t>Roles and responsibilties for [Insert Model Name &amp; Financial Year of Interest]</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Started on (date)</t>
-  </si>
-  <si>
-    <t>Ended on (date)</t>
-  </si>
-  <si>
-    <t>Have you reviewed the relevantresponsibilites of your role found in the sheet 'R&amp;R Resources'?</t>
-  </si>
-  <si>
-    <t>Do you agree to uphold the roles and responsibilties outlined in the sheet 'R&amp;R Resources'?</t>
-  </si>
-  <si>
-    <t>Please record here which documents you have created to evidence your work in your role</t>
-  </si>
-  <si>
-    <t>Date of last review/update</t>
-  </si>
-  <si>
-    <t>Signed off</t>
-  </si>
-  <si>
-    <t>Next review/update due on</t>
-  </si>
-  <si>
-    <t>SRO</t>
-  </si>
-  <si>
-    <t>Commissioner</t>
-  </si>
-  <si>
-    <t>Analytical Assurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handover Example </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If a handover has occured and the individual owning the role has changed, please </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">add </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>your name in the sign off box.</t>
-    </r>
-  </si>
-  <si>
-    <t>Do not overwrite the existing name</t>
-  </si>
-  <si>
-    <t>SRO Overview</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The SRO owns the model. This means it is the SRO's responsibiltiy to ensure the documentation here is kept up to date and is signed off </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>by them</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">. Furthermore, they should act as the final decision maker on model design choices, lisasing with the commissoner if the decisions are very complex or difficult. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>They should remember to document these decisions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">. It is also their responsibility to make sure that the limitations, uncertainties and assumptions of the model are well communicated to the end user in the final product. </t>
-    </r>
-  </si>
-  <si>
-    <t>Commissioner Overview</t>
-  </si>
-  <si>
-    <r>
-      <t>The commissioner acts as the liason between the end user and the modelling team. They ensure that the model is being designed according to the end user need, which involves transmitting needs from end users to analysts and also concerns and limitations from analysts to end users.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> The flow of information should be two-way.</t>
-    </r>
-  </si>
-  <si>
-    <t>Analytical Assurer Overview</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>The analytical assurer works to ensure that enough appropritate quality assurance</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> is occuring and will occur duing model development</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">. It is important to emphasise that quality assurance </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>does not only occur at the end of development</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>. Most often this involves seeking out quality assurers, scheduling time into the development to allow them to work and ensuring that their feedback is reviewed and implemented into the model, where appropriate.</t>
-    </r>
-  </si>
-  <si>
-    <t>Commisioner Responsibilites</t>
-  </si>
-  <si>
-    <t>Analytical Assurer Responsibilites</t>
-  </si>
-  <si>
-    <t>Responsibility</t>
-  </si>
-  <si>
-    <t>Signed by</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Responsibilitiy</t>
-  </si>
-  <si>
-    <t>I agree to review and sign off all key decisions to be made about the model</t>
-  </si>
-  <si>
-    <t>I agree to ensure that sufficent resources and time are allocated to reach the desired level of quality.</t>
-  </si>
-  <si>
-    <t>I agree to ensure that sufficent quality assurance happens throughout model development</t>
-  </si>
-  <si>
-    <t>I agree to communicate model risks, limitations, major assumptions and uncertainty associated with the outcomes to users of the model</t>
-  </si>
-  <si>
-    <t>I agree to ensure a high level of understanding of the requirements, scope and context of the analysis, not just for myself, but for the SRO, the Analytical Assurer and the Analyst(s)</t>
-  </si>
-  <si>
-    <t>I agree to ensure that the Quality Assurance that occurs is varied, including code review, documentation review, methodological review and interviews with the modelling team to ensure development is occuring as planned.</t>
-  </si>
-  <si>
-    <t>I agree to quantify input error, major assumptions, limitations and uncertainty mathematically wherever possible.</t>
-  </si>
-  <si>
-    <t>I agree to understand and stay informed of the the strengths, limitations and contexts of the analysis</t>
-  </si>
-  <si>
-    <t>I will ensure that the feedback given by the Quality Assurers is fully documented and reviewed by the modelling team</t>
-  </si>
-  <si>
-    <t>I agree to attempt to mittigate assumptions and limitations by improving model design wherever possible.</t>
-  </si>
-  <si>
-    <t>I agree to remain up to date and informed of the model's uncertainties and their implications </t>
-  </si>
-  <si>
-    <t>I agree to ensure that the limitations, uncertainties and caveats detected by Quality Assurnace are communicated to end users, both before and after publication.</t>
-  </si>
-  <si>
-    <t>I agree to ensure that the quality assurance process is compliant and appropriate, documneting the findings and reviewing them to inform the model development going forward.</t>
-  </si>
-  <si>
-    <t>I agree to transmit information regarding the strengths, limitations, context and uncertainties from the modelling team to the end users to ensure appropriate model development.</t>
-  </si>
-  <si>
-    <t>I agree to honestly and openly communicate errors in the model before and after publication to the end users. In particular, if an error is detected post publication, I agree to not withhold information regarding the error from the public and the end users.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I agree to communicate the concerns of my modelling team to the commissioner. These concerns can include quality, timeline and feasability concerns. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>It is not acceptable for me to ignore the concerns of the modelling team.</t>
-    </r>
-  </si>
-  <si>
-    <t>I agree to transmit information regarding user needs from end users to the modelling team, ensuring that the model is developed according to user needs</t>
-  </si>
-  <si>
-    <t>SRO Documents</t>
-  </si>
-  <si>
-    <t>Commissioner Documents</t>
-  </si>
-  <si>
-    <t>Analytical Assurer Documents</t>
-  </si>
-  <si>
-    <t>Name &amp; Description</t>
-  </si>
-  <si>
-    <t>Created by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name &amp; Description </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Commissioning document: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Outlines the question the model is trying to answer and how this model will try to answer it. It should be completed before model production begins. It should be created in colaboration with end users and analysts. Should also include the broad specifications including accuracy requirements, delivery timeline and skill gaps that must be filled before completion.</t>
-    </r>
-  </si>
-  <si>
-    <t>TODO: Create Word Template</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>QA Plan &amp; Log:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> This document outlines the planned quality assurance which should occur before the publciation date of the model. This should include a broad outline of the kind of review that will occur (e.g. code review, documentation review, external peer review) as well as the expected individuals who will perform the review. They should be contacted well in advance of the start date of the review and required time, resources and documentation should be discussed with them well in advance of the start date.</t>
-    </r>
-  </si>
-  <si>
-    <t>They have asked to always put this as a hyperlink, so here it is.</t>
-  </si>
-  <si>
-    <t>https://uksa.statisticsauthority.gov.uk/the-authority-board/committees/national-statisticians-advisory-committees-and-panels/national-statisticians-data-ethics-advisory-committee/ethics-self-assessment-tool/</t>
-  </si>
-  <si>
-    <t>I think we should make this the SRO's job to balance them out with one document each - not 100% sure it is the SRO's job, but it does cover a lot of the topics they should worry about.</t>
+    <t>https://officenationalstatistics.sharepoint.com/sites/onswiki/SitePages/Coding-languages-for-analysis-at-ONS.aspx</t>
+  </si>
+  <si>
+    <t>Past analysis</t>
+  </si>
+  <si>
+    <t>https://best-practice-and-impact.github.io/qa-of-code-guidance/intro.html</t>
+  </si>
+  <si>
+    <t>Publications and Outputs</t>
+  </si>
+  <si>
+    <t>A table with a series of boxes to be filled in by the owning team which sets out basic details about the analysis</t>
+  </si>
+  <si>
+    <t>A graphical representation of all the inputs into the analysis, what processes they go through and the outputs created by the analysis. These outputs should then, ideally, be linked to planned or ongoing publications.</t>
+  </si>
+  <si>
+    <t>Records when somebody took on a governance role and if they reviewed the documentation relevant to the responsibiltiies of the role. Also records past governance ownership to ensure that handovers are recorded.</t>
+  </si>
+  <si>
+    <t>Guidance about what each assurance role involves and templates to record agreement to carry out that role are on the sheet labelled 'R&amp;R Resources'</t>
+  </si>
+  <si>
+    <t>Stores information about specific roles and responsibilities</t>
+  </si>
+  <si>
+    <t>Recreating these in Excel can be cumbersome. Images, slides and other formats can be copy-pasted here for ease of reference</t>
+  </si>
+  <si>
+    <t>Alternatively, teams can use the framework outlined below</t>
+  </si>
+  <si>
+    <t>Note: This example model demonstrates how a model map might be laid out, not a real ONS model</t>
+  </si>
+  <si>
+    <t>Example Model</t>
+  </si>
+  <si>
+    <t>How much chocolate does the average person eat per year?</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Intermediates</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Census data</t>
+  </si>
+  <si>
+    <t>Total populaton of Uk</t>
+  </si>
+  <si>
+    <t>Simple Multiplication</t>
+  </si>
+  <si>
+    <t>Total Chocolate (UK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate consumed (g) per person </t>
+  </si>
+  <si>
+    <t>Population breakdown by local authority</t>
+  </si>
+  <si>
+    <t>Regression analysis</t>
+  </si>
+  <si>
+    <t>Mean chocolate (per LA)</t>
+  </si>
+  <si>
+    <t>Broken down by local authority</t>
+  </si>
+  <si>
+    <t>Broken down by kind of chocolate</t>
+  </si>
+  <si>
+    <t>Broken down by month of year</t>
+  </si>
+  <si>
+    <t>Supermarket data</t>
+  </si>
+  <si>
+    <t>Number of visits per person per month</t>
+  </si>
+  <si>
+    <t>Chocolate (g) per visit</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideally, all independent processes should use a different colour </t>
+  </si>
+  <si>
+    <t>The headline source of data should be presented, alongside the actual information extracted</t>
+  </si>
+  <si>
+    <t>Most teams will create process maps or model maps during development. These are very helpful to give an overview of the analysis workflow.</t>
+  </si>
+  <si>
+    <t>The ethics working group have requested that their ethics log should be linked to as a hyperlink. Use the following link:</t>
+  </si>
+  <si>
+    <t>When you have completed the ethics log, copy-paste the results into this tab to ensure the log is stored correctly with all other documentation</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>This spreadsheet provides a structured template for analysis documentation</t>
+  </si>
+  <si>
+    <t>While most of the template should be self explanatory, this introductory slide sets out basic guidance on use.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,8 +712,46 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +774,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -827,7 +948,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -902,12 +1023,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,14 +1044,8 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,12 +1060,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,6 +1088,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1002,6 +1156,492 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EAABAB-57CD-4CC9-991C-AB37D59D6AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503170" y="1943100"/>
+          <a:ext cx="876300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6DF996-1BEF-41D6-AB7A-655E7973E193}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3D7B9B55-CCD2-F467-351B-6F1D09D21871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2588895" y="2059305"/>
+          <a:ext cx="714375" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26497F5-3780-4E57-98A8-F138979A9C5F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3AAA6EDE-B487-4CC3-B4D5-D9D9A4EA4657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2569845" y="2230755"/>
+          <a:ext cx="752475" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="EB7B31"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1D55D1-02ED-459F-AD23-98C2FE651591}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1654CBA5-E049-4E4A-ACF9-EEEB088EA2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2579370" y="2421255"/>
+          <a:ext cx="800100" cy="681990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="EB7B31"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045D6B95-AE59-4FD3-A193-7AB3C35CEC0B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6E8ED58F-DA0E-422F-B0BA-3313020B4E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4787265" y="1943100"/>
+          <a:ext cx="586740" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30B0139-2755-42D7-8618-0A60907C726E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5382614E-B737-4CC8-939D-BE3980B5CBE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4692015" y="2297430"/>
+          <a:ext cx="552450" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="EB7B31"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357B2717-7DFB-4555-AC07-849D6010DBCC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36FF31AB-CF48-4B75-996B-E571B1756ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6993255" y="2326005"/>
+          <a:ext cx="1341120" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="EB7B31"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08044AD8-797F-4DAD-9855-09DBB76F4EEC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{390FAEB7-5C7F-4762-AAF9-445EB6C5FD6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6631305" y="1914525"/>
+          <a:ext cx="1002030" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,105 +1910,105 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="15.7265625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="94.26953125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="17"/>
+    <col min="2" max="2" width="15.77734375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="94.21875" style="24" customWidth="1"/>
     <col min="4" max="4" width="39" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="17"/>
+    <col min="5" max="16384" width="9.21875" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
+      <c r="C7" s="28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="D7" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="51"/>
+    </row>
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="51"/>
+    </row>
+    <row r="10" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C10" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="57"/>
-    </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="57"/>
-    </row>
-    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="57"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="24"/>
     </row>
   </sheetData>
@@ -1384,164 +2024,174 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="23.54296875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="72.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.453125" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.21875" style="17"/>
+    <col min="2" max="2" width="23.5546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="72.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.44140625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="26" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="26" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B23" s="25"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C24" s="20"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C25" s="22"/>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="28" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C26" s="20"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{F62C4DB7-4613-4AA3-85B9-847D8D456B52}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{DCB5EAF3-7ABD-4E22-AD36-913393C17FF9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1551,61 +2201,187 @@
   <sheetPr>
     <tabColor rgb="FF4472C4"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="17"/>
-    <col min="2" max="2" width="23.54296875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="17"/>
-    <col min="6" max="6" width="24.81640625" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="9.21875" style="17"/>
+    <col min="2" max="2" width="23.5546875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="17"/>
+    <col min="6" max="6" width="24.77734375" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="25"/>
-      <c r="D2" s="50"/>
-      <c r="F2" s="54"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="73"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="73"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="73"/>
+      <c r="D18" s="80"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="73"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="73"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="73"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1617,33 +2393,33 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="29.33203125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1654,7 +2430,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1667,59 +2443,59 @@
       <c r="J3" s="8"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1732,44 +2508,44 @@
       <c r="J8" s="8"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="15" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1781,10 +2557,10 @@
       <c r="J11" s="9"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="15" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1796,9 +2572,9 @@
       <c r="J12" s="10"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1809,17 +2585,17 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1830,9 +2606,9 @@
       <c r="I16" s="10"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1843,9 +2619,9 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1878,253 +2654,410 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="103.26953125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="34"/>
-    <col min="6" max="6" width="30" style="34" customWidth="1"/>
-    <col min="7" max="7" width="71.54296875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1796875" style="34"/>
-    <col min="11" max="11" width="30" style="34" customWidth="1"/>
-    <col min="12" max="12" width="97.54296875" style="34" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="34"/>
+    <col min="1" max="1" width="18.77734375" style="61" customWidth="1"/>
+    <col min="2" max="2" width="103.21875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="61"/>
+    <col min="6" max="6" width="30" style="61" customWidth="1"/>
+    <col min="7" max="7" width="71.5546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.21875" style="61"/>
+    <col min="11" max="11" width="30" style="61" customWidth="1"/>
+    <col min="12" max="12" width="97.5546875" style="61" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.21875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="70" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="38" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="K7" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="G9" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="L9" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="G10" s="44" t="s">
+      <c r="K18" s="34"/>
+      <c r="L18" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="L10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="G11" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="L11" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="G12" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="L12" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="G13" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="L13" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="G14" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G17" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="7:14" ht="84" x14ac:dyDescent="0.3">
-      <c r="G18" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2139,24 +3072,24 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2168,6 +3101,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031C6D98A8BA9914F9CBD1D8D43561C2B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe68ee94ad132cd9573ee5df7f79634">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e1cd103-0302-4a32-9a4b-e115c950d959" xmlns:ns3="50b62f6a-6a2d-4510-bfe7-b1a3c00072e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79546467c749b53446c42cd54d5b84a7" ns2:_="" ns3:_="">
     <xsd:import namespace="7e1cd103-0302-4a32-9a4b-e115c950d959"/>
@@ -2346,15 +3288,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2362,6 +3295,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D186559C-C381-484C-9B7A-F4466E79AE25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7172C35A-60C8-4255-B923-5B0DA2E90291}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2380,14 +3321,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D186559C-C381-484C-9B7A-F4466E79AE25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71C399E-D560-405D-A693-6A86DF1C82D7}">
   <ds:schemaRefs>
